--- a/Dokumentacija/Proračun projekta.xlsx
+++ b/Dokumentacija/Proračun projekta.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_GoBack" localSheetId="0">Sheet1!$B$47</definedName>
+    <definedName name="_GoBack" localSheetId="0">Sheet1!$B$48</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Br</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>PRORAČUN PROJEKTA</t>
+  </si>
+  <si>
+    <t>Dorada dokumentacije projekta</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,24 +488,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -597,15 +582,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -683,18 +659,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -705,11 +669,14 @@
     <xf numFmtId="8" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,20 +971,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="36" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1025,7 +992,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
@@ -1034,7 +1001,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1"/>
@@ -1043,10 +1010,10 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1054,10 +1021,10 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1065,10 +1032,10 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="21">
         <v>100</v>
       </c>
     </row>
@@ -1076,10 +1043,10 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="21">
         <v>250</v>
       </c>
     </row>
@@ -1087,10 +1054,10 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="21">
         <v>150</v>
       </c>
     </row>
@@ -1098,10 +1065,10 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="21">
         <v>250</v>
       </c>
     </row>
@@ -1109,10 +1076,10 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="21">
         <v>120</v>
       </c>
     </row>
@@ -1120,10 +1087,10 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="21">
         <v>150</v>
       </c>
     </row>
@@ -1131,10 +1098,10 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="21">
         <v>600</v>
       </c>
     </row>
@@ -1142,10 +1109,10 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="21">
         <v>250</v>
       </c>
     </row>
@@ -1153,10 +1120,10 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="21">
         <v>50</v>
       </c>
     </row>
@@ -1164,10 +1131,10 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="21">
         <v>500</v>
       </c>
     </row>
@@ -1175,10 +1142,10 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="21">
         <v>150</v>
       </c>
     </row>
@@ -1186,21 +1153,21 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1">
-      <c r="A18" s="33">
+      <c r="A18" s="30">
         <v>16</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="23">
         <v>1000</v>
       </c>
     </row>
@@ -1208,10 +1175,10 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="23">
         <v>200</v>
       </c>
     </row>
@@ -1219,10 +1186,10 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="23">
         <v>500</v>
       </c>
     </row>
@@ -1230,334 +1197,345 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="23">
         <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1">
-      <c r="A22" s="33">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C23" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
-      <c r="A23" s="34">
+    <row r="24" spans="1:3" ht="15" customHeight="1">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="24">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="27">
+      <c r="C26" s="24">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="24">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="27">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="27">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="27">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="27">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="27">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="27">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="27">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="27">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="27">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" customHeight="1">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="27">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" customHeight="1">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="27">
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
-      <c r="A24" s="4">
-        <v>22</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="27">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
-      <c r="A25" s="4">
-        <v>23</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="27">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
-      <c r="A26" s="4">
-        <v>24</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="27">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
-      <c r="A27" s="4">
-        <v>25</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="27">
+    <row r="42" spans="1:3" ht="15" customHeight="1">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="27">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" customHeight="1">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" customHeight="1">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="28">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" customHeight="1">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" customHeight="1">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="28">
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="28">
+    <row r="48" spans="1:3" ht="15" customHeight="1" thickBot="1">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1">
-      <c r="A29" s="35">
-        <v>27</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1">
-      <c r="A30" s="5">
-        <v>28</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="30">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1">
-      <c r="A31" s="5">
-        <v>29</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="30">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1">
-      <c r="A32" s="5">
-        <v>30</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="30">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1">
-      <c r="A33" s="5">
-        <v>31</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="30">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1">
-      <c r="A34" s="5">
-        <v>32</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="30">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1">
-      <c r="A35" s="5">
-        <v>33</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="30">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1">
-      <c r="A36" s="5">
-        <v>34</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="30">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1">
-      <c r="A37" s="5">
-        <v>35</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="30">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1">
-      <c r="A38" s="5">
-        <v>36</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="30">
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1">
-      <c r="A39" s="5">
-        <v>37</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="30">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1">
-      <c r="A40" s="5">
-        <v>38</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="30">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1">
-      <c r="A41" s="5">
-        <v>39</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="30">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1">
-      <c r="A42" s="5">
-        <v>40</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1">
-      <c r="A43" s="36">
-        <v>41</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="31">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1">
-      <c r="A44" s="6">
-        <v>42</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1">
-      <c r="A45" s="6">
-        <v>43</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1">
-      <c r="A46" s="6">
-        <v>44</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="31">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" thickBot="1">
-      <c r="A47" s="37">
-        <v>45</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1" thickBot="1">
-      <c r="A48" s="42" t="s">
+    <row r="49" spans="1:3" ht="15" customHeight="1" thickBot="1">
+      <c r="A49" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43">
-        <f>SUM(C4:C47)</f>
+      <c r="B49" s="37"/>
+      <c r="C49" s="35">
+        <f>SUM(C4:C48)</f>
         <v>39490</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" thickBot="1">
-      <c r="A49" s="42" t="s">
+    <row r="50" spans="1:3" ht="15" customHeight="1" thickBot="1">
+      <c r="A50" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="43">
-        <f>C48*25%</f>
+      <c r="B50" s="37"/>
+      <c r="C50" s="35">
+        <f>C49*25%</f>
         <v>9872.5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A50" s="42" t="s">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A51" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="43">
-        <f>SUM(C48:C49)</f>
+      <c r="B51" s="37"/>
+      <c r="C51" s="35">
+        <f>SUM(C49:C50)</f>
         <v>49362.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A48:B48"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
